--- a/biology/Botanique/Cassytha/Cassytha.xlsx
+++ b/biology/Botanique/Cassytha/Cassytha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassytha est un genre de 17 espèces de plantes parasites de la famille des Lauraceae originaires pour la plupart d'Australie, mais avec quelques espèces originaires d'Afrique, du sud de l'Asie et pour une (C. filiformis) d'Hawaii, du nord de l'Amérique du Sud, d'Amérique centrale, du sud de la Floride et du Japon.
 Les plantes ont une ressemblance frappante, bien que superficielle, avec le genre Cuscuta (cuscute), un genre indépendant de la famille des Convolvulacées, en faisant un excellent exemple d'évolution convergente.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre assigné à la famille des Lauraceae fut classé dans sa propre famille, les Cassythaceae Bartl. ex Lindl., 1833, nomen conservandum[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre assigné à la famille des Lauraceae fut classé dans sa propre famille, les Cassythaceae Bartl. ex Lindl., 1833, nomen conservandum.
 Le genre a un homonyme Cassytha Mill., qui est un synonyme du genre de cactus Rhipsalis.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cassytha aurea - Australie
 Cassytha candida - Australie
@@ -586,9 +602,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (4 févr. 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (4 févr. 2011) :
 Cassytha ciliolata
 Cassytha filiformis
 Cassytha melantha
